--- a/database - circanual/GAM/12 knots/Sire -GAM (12 knots)- R-score and p-value -all species.xlsx
+++ b/database - circanual/GAM/12 knots/Sire -GAM (12 knots)- R-score and p-value -all species.xlsx
@@ -460,10 +460,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5196558539664098</v>
+        <v>0.5601452092437416</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2357642357642358</v>
+        <v>0.1948051948051948</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.4084280640454606</v>
+        <v>0.4084280640454603</v>
       </c>
       <c r="C3" t="n">
         <v>0.4955044955044955</v>
@@ -492,10 +492,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>0.7317368941671341</v>
+        <v>0.5836132047127229</v>
       </c>
       <c r="C4" t="n">
-        <v>0.03696303696303696</v>
+        <v>0.1768231768231768</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -508,10 +508,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>0.3640311396436769</v>
+        <v>0.6732326339673926</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5754245754245755</v>
+        <v>0.07592407592407592</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -524,7 +524,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6016886140660667</v>
+        <v>0.601688614066068</v>
       </c>
       <c r="C6" t="n">
         <v>0.1148851148851149</v>
@@ -540,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6071608823281858</v>
+        <v>0.8914072524180431</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -556,10 +556,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3795653132541458</v>
+        <v>0.4197249189372048</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5584415584415584</v>
+        <v>0.4225774225774226</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -572,10 +572,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>0.1181149788990974</v>
+        <v>0.2148826799583995</v>
       </c>
       <c r="C9" t="n">
-        <v>0.983016983016983</v>
+        <v>0.8961038961038961</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -588,10 +588,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>0.6098105897481469</v>
+        <v>0.6886837281548623</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1288711288711289</v>
+        <v>0.04495504495504495</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -604,10 +604,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>0.7139491084424348</v>
+        <v>0.4181574834073523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03496503496503497</v>
+        <v>0.4275724275724276</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -620,10 +620,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>0.3585805676313746</v>
+        <v>0.5956985377030601</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5884115884115884</v>
+        <v>0.1558441558441558</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -636,10 +636,10 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>0.3419389764251404</v>
+        <v>0.1132451330512536</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6483516483516484</v>
+        <v>0.984015984015984</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -652,7 +652,7 @@
         <v>1</v>
       </c>
       <c r="B14" t="n">
-        <v>0.678036931580404</v>
+        <v>0.6780369315804056</v>
       </c>
       <c r="C14" t="n">
         <v>0.06493506493506493</v>
@@ -668,7 +668,7 @@
         <v>2</v>
       </c>
       <c r="B15" t="n">
-        <v>0.6127056111291553</v>
+        <v>0.6127056111291547</v>
       </c>
       <c r="C15" t="n">
         <v>0.1138861138861139</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="B16" t="n">
-        <v>0.4891809959183135</v>
+        <v>0.4891809959183123</v>
       </c>
       <c r="C16" t="n">
         <v>0.2827172827172827</v>
@@ -700,10 +700,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>0.4510505234112457</v>
+        <v>0.5942941639795087</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3916083916083916</v>
+        <v>0.1458541458541459</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -716,7 +716,7 @@
         <v>5</v>
       </c>
       <c r="B18" t="n">
-        <v>0.4974267168091272</v>
+        <v>0.4974267168091261</v>
       </c>
       <c r="C18" t="n">
         <v>0.2767232767232767</v>
@@ -732,7 +732,7 @@
         <v>6</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5701787517029284</v>
+        <v>0.5701787517029293</v>
       </c>
       <c r="C19" t="n">
         <v>0.1948051948051948</v>
@@ -748,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B20" t="n">
-        <v>0.4814544892013615</v>
+        <v>0.4814544892013629</v>
       </c>
       <c r="C20" t="n">
         <v>0.3386613386613387</v>
@@ -764,10 +764,10 @@
         <v>8</v>
       </c>
       <c r="B21" t="n">
-        <v>0.4078657645283431</v>
+        <v>0.4985033098325422</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4515484515484515</v>
+        <v>0.1988011988011988</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -780,10 +780,10 @@
         <v>9</v>
       </c>
       <c r="B22" t="n">
-        <v>0.6306409436741942</v>
+        <v>0.5049029803708438</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1008991008991009</v>
+        <v>0.2767232767232767</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -796,7 +796,7 @@
         <v>10</v>
       </c>
       <c r="B23" t="n">
-        <v>0.472021588929829</v>
+        <v>0.4720215889298292</v>
       </c>
       <c r="C23" t="n">
         <v>0.3436563436563437</v>
@@ -812,7 +812,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5688388650205551</v>
+        <v>0.5688388650205569</v>
       </c>
       <c r="C24" t="n">
         <v>0.1878121878121878</v>
@@ -828,10 +828,10 @@
         <v>12</v>
       </c>
       <c r="B25" t="n">
-        <v>0.3187995421451608</v>
+        <v>0.534577050433565</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6753246753246753</v>
+        <v>0.2017982017982018</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -844,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5277833743097802</v>
+        <v>0.5277833743097795</v>
       </c>
       <c r="C26" t="n">
         <v>0.2627372627372627</v>
@@ -860,10 +860,10 @@
         <v>2</v>
       </c>
       <c r="B27" t="n">
-        <v>0.8313038028181854</v>
+        <v>0.7634114857724198</v>
       </c>
       <c r="C27" t="n">
-        <v>0.004995004995004995</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
         <v>3</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5458646346229084</v>
+        <v>0.5458646346229077</v>
       </c>
       <c r="C28" t="n">
         <v>0.2077922077922078</v>
@@ -892,10 +892,10 @@
         <v>4</v>
       </c>
       <c r="B29" t="n">
-        <v>0.384079165328075</v>
+        <v>0.5817048766572936</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5514485514485514</v>
+        <v>0.1548451548451548</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -908,7 +908,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="n">
-        <v>0.5445529340692794</v>
+        <v>0.5445529340692807</v>
       </c>
       <c r="C30" t="n">
         <v>0.2287712287712288</v>
@@ -924,10 +924,10 @@
         <v>6</v>
       </c>
       <c r="B31" t="n">
-        <v>0.6786126379641774</v>
+        <v>0.7252877389532026</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06093906093906094</v>
+        <v>0.03796203796203796</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -940,10 +940,10 @@
         <v>7</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5500470110434709</v>
+        <v>0.5035648844530947</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2207792207792208</v>
+        <v>0.2757242757242757</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -956,10 +956,10 @@
         <v>8</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5850082259011636</v>
+        <v>0.5963313354343771</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1548451548451548</v>
+        <v>0.1518481518481518</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -972,10 +972,10 @@
         <v>9</v>
       </c>
       <c r="B34" t="n">
-        <v>0.7340041375103471</v>
+        <v>0.7991898852895289</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01998001998001998</v>
+        <v>0.00999000999000999</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -988,7 +988,7 @@
         <v>10</v>
       </c>
       <c r="B35" t="n">
-        <v>0.7405713373832457</v>
+        <v>0.7405713373832467</v>
       </c>
       <c r="C35" t="n">
         <v>0.02297702297702298</v>
@@ -1004,7 +1004,7 @@
         <v>11</v>
       </c>
       <c r="B36" t="n">
-        <v>0.383553084152948</v>
+        <v>0.3835530841529481</v>
       </c>
       <c r="C36" t="n">
         <v>0.5544455544455544</v>
@@ -1020,7 +1020,7 @@
         <v>12</v>
       </c>
       <c r="B37" t="n">
-        <v>0.6142699396862934</v>
+        <v>0.6142699396862945</v>
       </c>
       <c r="C37" t="n">
         <v>0.1068931068931069</v>
@@ -1036,7 +1036,7 @@
         <v>1</v>
       </c>
       <c r="B38" t="n">
-        <v>0.9407588491929242</v>
+        <v>0.9626903731700978</v>
       </c>
       <c r="C38" t="n">
         <v>0.000999000999000999</v>
@@ -1052,10 +1052,10 @@
         <v>2</v>
       </c>
       <c r="B39" t="n">
-        <v>0.8949643361912851</v>
+        <v>0.9183985863336299</v>
       </c>
       <c r="C39" t="n">
-        <v>0.001998001998001998</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1068,10 +1068,10 @@
         <v>3</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8853663991581128</v>
+        <v>0.7796588280108963</v>
       </c>
       <c r="C40" t="n">
-        <v>0.003996003996003996</v>
+        <v>0.02297702297702298</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1084,10 +1084,10 @@
         <v>4</v>
       </c>
       <c r="B41" t="n">
-        <v>0.6446988907145401</v>
+        <v>0.71304080447701</v>
       </c>
       <c r="C41" t="n">
-        <v>0.1038961038961039</v>
+        <v>0.04495504495504495</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1100,7 +1100,7 @@
         <v>5</v>
       </c>
       <c r="B42" t="n">
-        <v>0.8069955988626798</v>
+        <v>0.8069955988626802</v>
       </c>
       <c r="C42" t="n">
         <v>0.008991008991008992</v>
@@ -1116,10 +1116,10 @@
         <v>6</v>
       </c>
       <c r="B43" t="n">
-        <v>0.7598648523468959</v>
+        <v>0.8053663775613749</v>
       </c>
       <c r="C43" t="n">
-        <v>0.01898101898101898</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>0.721498190352339</v>
+        <v>0.9005604123047174</v>
       </c>
       <c r="C44" t="n">
-        <v>0.04095904095904096</v>
+        <v>0.002997002997002997</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1148,10 +1148,10 @@
         <v>8</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9326109794289235</v>
+        <v>0.8476085411251366</v>
       </c>
       <c r="C45" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.007992007992007992</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
         <v>9</v>
       </c>
       <c r="B46" t="n">
-        <v>0.8847723744797271</v>
+        <v>0.8183409423612942</v>
       </c>
       <c r="C46" t="n">
-        <v>0.001998001998001998</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1180,10 +1180,10 @@
         <v>10</v>
       </c>
       <c r="B47" t="n">
-        <v>0.9475855541315641</v>
+        <v>0.8877234344805756</v>
       </c>
       <c r="C47" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.003996003996003996</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1196,10 +1196,10 @@
         <v>11</v>
       </c>
       <c r="B48" t="n">
-        <v>0.7238403252932721</v>
+        <v>0.9394814821922256</v>
       </c>
       <c r="C48" t="n">
-        <v>0.03496503496503497</v>
+        <v>0.000999000999000999</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -1212,10 +1212,10 @@
         <v>12</v>
       </c>
       <c r="B49" t="n">
-        <v>0.8495888487666445</v>
+        <v>0.8372364519519926</v>
       </c>
       <c r="C49" t="n">
-        <v>0.003996003996003996</v>
+        <v>0.001998001998001998</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -1228,10 +1228,10 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>0.7567978615126632</v>
+        <v>0.7973992513595141</v>
       </c>
       <c r="C50" t="n">
-        <v>0.01198801198801199</v>
+        <v>0.005994005994005994</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -1244,10 +1244,10 @@
         <v>2</v>
       </c>
       <c r="B51" t="n">
-        <v>0.6475844151169251</v>
+        <v>0.6245747582575651</v>
       </c>
       <c r="C51" t="n">
-        <v>0.08591408591408592</v>
+        <v>0.1238761238761239</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -1260,10 +1260,10 @@
         <v>3</v>
       </c>
       <c r="B52" t="n">
-        <v>0.8813733504078133</v>
+        <v>0.7625797723006951</v>
       </c>
       <c r="C52" t="n">
-        <v>0.000999000999000999</v>
+        <v>0.01598401598401598</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -1276,7 +1276,7 @@
         <v>4</v>
       </c>
       <c r="B53" t="n">
-        <v>0.7229882599498771</v>
+        <v>0.7229882599498777</v>
       </c>
       <c r="C53" t="n">
         <v>0.03296703296703297</v>
@@ -1292,10 +1292,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="n">
-        <v>0.8415902644051159</v>
+        <v>0.8511441472631049</v>
       </c>
       <c r="C54" t="n">
-        <v>0.006993006993006993</v>
+        <v>0.001998001998001998</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -1308,7 +1308,7 @@
         <v>6</v>
       </c>
       <c r="B55" t="n">
-        <v>0.1867144711438039</v>
+        <v>0.186714471143805</v>
       </c>
       <c r="C55" t="n">
         <v>0.926073926073926</v>
@@ -1340,10 +1340,10 @@
         <v>8</v>
       </c>
       <c r="B57" t="n">
-        <v>0.7484786462167978</v>
+        <v>0.7553460682531558</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02997002997002997</v>
+        <v>0.02097902097902098</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -1356,7 +1356,7 @@
         <v>9</v>
       </c>
       <c r="B58" t="n">
-        <v>0.7424921313115109</v>
+        <v>0.7424921313115102</v>
       </c>
       <c r="C58" t="n">
         <v>0.03296703296703297</v>
@@ -1372,10 +1372,10 @@
         <v>10</v>
       </c>
       <c r="B59" t="n">
-        <v>0.8705195344408252</v>
+        <v>0.852709063548391</v>
       </c>
       <c r="C59" t="n">
-        <v>0.004995004995004995</v>
+        <v>0.002997002997002997</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -1388,7 +1388,7 @@
         <v>11</v>
       </c>
       <c r="B60" t="n">
-        <v>0.9116082177390512</v>
+        <v>0.9116082177390519</v>
       </c>
       <c r="C60" t="n">
         <v>0.000999000999000999</v>
@@ -1404,7 +1404,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="n">
-        <v>0.8275677261430305</v>
+        <v>0.8275677261430311</v>
       </c>
       <c r="C61" t="n">
         <v>0.007992007992007992</v>
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="B62" t="n">
-        <v>0.7609830706751715</v>
+        <v>0.7443524824058302</v>
       </c>
       <c r="C62" t="n">
         <v>0.02297702297702298</v>
@@ -1436,10 +1436,10 @@
         <v>2</v>
       </c>
       <c r="B63" t="n">
-        <v>0.6097578281342728</v>
+        <v>0.4107593299569197</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1178821178821179</v>
+        <v>0.4535464535464536</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -1452,10 +1452,10 @@
         <v>3</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5697705294115577</v>
+        <v>0.6159175310948579</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1718281718281718</v>
+        <v>0.1078921078921079</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -1468,10 +1468,10 @@
         <v>4</v>
       </c>
       <c r="B65" t="n">
-        <v>0.8078200838661306</v>
+        <v>0.5941327036029361</v>
       </c>
       <c r="C65" t="n">
-        <v>0.008991008991008992</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -1484,10 +1484,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="n">
-        <v>0.7036020636256244</v>
+        <v>0.6132443350848544</v>
       </c>
       <c r="C66" t="n">
-        <v>0.04995004995004995</v>
+        <v>0.1228771228771229</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1500,10 +1500,10 @@
         <v>6</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5165405962777602</v>
+        <v>0.4056589869773618</v>
       </c>
       <c r="C67" t="n">
-        <v>0.2627372627372627</v>
+        <v>0.5084915084915085</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -1516,10 +1516,10 @@
         <v>7</v>
       </c>
       <c r="B68" t="n">
-        <v>0.7135784315506373</v>
+        <v>0.8014500744434127</v>
       </c>
       <c r="C68" t="n">
-        <v>0.05094905094905095</v>
+        <v>0.01098901098901099</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -1532,10 +1532,10 @@
         <v>8</v>
       </c>
       <c r="B69" t="n">
-        <v>0.8614872750510681</v>
+        <v>0.7834907839247272</v>
       </c>
       <c r="C69" t="n">
-        <v>0.001998001998001998</v>
+        <v>0.01298701298701299</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -1548,10 +1548,10 @@
         <v>9</v>
       </c>
       <c r="B70" t="n">
-        <v>0.7348805287217202</v>
+        <v>0.8363847914867264</v>
       </c>
       <c r="C70" t="n">
-        <v>0.02997002997002997</v>
+        <v>0.01198801198801199</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1564,10 +1564,10 @@
         <v>10</v>
       </c>
       <c r="B71" t="n">
-        <v>0.7849785850851283</v>
+        <v>0.7364793533538112</v>
       </c>
       <c r="C71" t="n">
-        <v>0.01398601398601399</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -1580,10 +1580,10 @@
         <v>11</v>
       </c>
       <c r="B72" t="n">
-        <v>0.7026542360196162</v>
+        <v>0.563278044623194</v>
       </c>
       <c r="C72" t="n">
-        <v>0.04495504495504495</v>
+        <v>0.1708291708291708</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -1596,10 +1596,10 @@
         <v>12</v>
       </c>
       <c r="B73" t="n">
-        <v>0.7879879784896051</v>
+        <v>0.7494919313526394</v>
       </c>
       <c r="C73" t="n">
-        <v>0.02397602397602398</v>
+        <v>0.02797202797202797</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
